--- a/Eason/英语/英语单词表.xlsx
+++ b/Eason/英语/英语单词表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\@richardcuick\richardcuick\Eason\英语\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD534260-D3EA-47BF-B365-0DA8768666EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1491BA0-57DD-4124-9323-3834252EBD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="163">
   <si>
     <t>elephant</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -528,6 +528,154 @@
   </si>
   <si>
     <t>At home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ears</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cheeks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teeth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoulders</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tummy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skirt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t-shirt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scarf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardigan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sweater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gloves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shirt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jeans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tights</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>socks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>belt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My clothes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -867,14 +1015,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B122"/>
+  <dimension ref="A1:B157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139:B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1527,7 +1676,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="A94" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B94" t="s">
@@ -1535,7 +1684,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="A95" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B95" t="s">
@@ -1551,7 +1700,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="A97" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B97" t="s">
@@ -1567,7 +1716,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+      <c r="A99" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B99" t="s">
@@ -1671,7 +1820,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="A112" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B112" t="s">
@@ -1703,7 +1852,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+      <c r="A116" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B116" t="s">
@@ -1711,7 +1860,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+      <c r="A117" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B117" t="s">
@@ -1727,7 +1876,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+      <c r="A119" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B119" t="s">
@@ -1735,7 +1884,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+      <c r="A120" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B120" t="s">
@@ -1756,6 +1905,286 @@
       </c>
       <c r="B122" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>144</v>
+      </c>
+      <c r="B140" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>145</v>
+      </c>
+      <c r="B141" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>146</v>
+      </c>
+      <c r="B142" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>147</v>
+      </c>
+      <c r="B143" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>148</v>
+      </c>
+      <c r="B144" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>149</v>
+      </c>
+      <c r="B145" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>150</v>
+      </c>
+      <c r="B146" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>151</v>
+      </c>
+      <c r="B147" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>152</v>
+      </c>
+      <c r="B148" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>153</v>
+      </c>
+      <c r="B149" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>154</v>
+      </c>
+      <c r="B150" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>155</v>
+      </c>
+      <c r="B151" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>156</v>
+      </c>
+      <c r="B152" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>157</v>
+      </c>
+      <c r="B153" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>159</v>
+      </c>
+      <c r="B155" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>160</v>
+      </c>
+      <c r="B156" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>161</v>
+      </c>
+      <c r="B157" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
